--- a/BackTest/2019-10-16 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-16 BackTest ZEC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2080</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>47343</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2090</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L13" t="n">
         <v>47344</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2100</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>30.43478260869566</v>
+      </c>
       <c r="L14" t="n">
         <v>47358</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2100</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>31.25</v>
+      </c>
       <c r="L15" t="n">
         <v>47407</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2570</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0.9708737864077669</v>
+      </c>
       <c r="L16" t="n">
         <v>47410</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3150</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>22.72727272727273</v>
+      </c>
       <c r="L17" t="n">
         <v>47470</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3740</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-17.51824817518248</v>
+      </c>
       <c r="L18" t="n">
         <v>47471</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3880</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-11.80555555555556</v>
+      </c>
       <c r="L19" t="n">
         <v>47437</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4630</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-52.75080906148867</v>
+      </c>
       <c r="L20" t="n">
         <v>47328</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5050</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-22.55892255892256</v>
+      </c>
       <c r="L21" t="n">
         <v>47207</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5250</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-15.18987341772152</v>
+      </c>
       <c r="L22" t="n">
         <v>47160</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5560</v>
       </c>
       <c r="K23" t="n">
-        <v>-2.877697841726619</v>
+        <v>-4.624277456647398</v>
       </c>
       <c r="L23" t="n">
         <v>47143</v>
@@ -1466,7 +1488,7 @@
         <v>6380</v>
       </c>
       <c r="K24" t="n">
-        <v>12.82051282051282</v>
+        <v>15.42056074766355</v>
       </c>
       <c r="L24" t="n">
         <v>47209</v>
